--- a/data/trans_bre/P13_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Edad-trans_bre.xlsx
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,61</t>
+          <t>-1,54; 2,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,73</t>
+          <t>-2,5; 1,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,88</t>
+          <t>0,28; 3,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,84</t>
+          <t>-1,2; 1,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,62; 224,86</t>
+          <t>-56,26; 244,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-70,84; 116,55</t>
+          <t>-71,41; 111,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,8</t>
+          <t>-0,27; 2,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 3,8</t>
+          <t>-0,21; 3,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 1,13</t>
+          <t>-1,8; 1,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 2,12</t>
+          <t>-3,75; 2,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,44; 352,43</t>
+          <t>-21,08; 348,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 250,77</t>
+          <t>-13,95; 254,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,36; 118,32</t>
+          <t>-67,78; 135,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,52; 108,73</t>
+          <t>-65,7; 105,49</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 1,17</t>
+          <t>-3,02; 1,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 4,92</t>
+          <t>0,13; 5,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,4</t>
+          <t>-2,83; 1,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,12</t>
+          <t>-2,86; 1,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-59,71; 43,23</t>
+          <t>-57,3; 42,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 152,94</t>
+          <t>-0,78; 168,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-59,62; 65,67</t>
+          <t>-60,78; 52,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-56,17; 53,56</t>
+          <t>-57,47; 58,27</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,9</t>
+          <t>0,76; 4,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 7,22</t>
+          <t>1,64; 7,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,0</t>
+          <t>-0,06; 4,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,7</t>
+          <t>-1,68; 2,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,12; 621,7</t>
+          <t>16,92; 693,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,56; 238,24</t>
+          <t>28,63; 250,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 160,68</t>
+          <t>-5,06; 154,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 94,41</t>
+          <t>-29,35; 95,58</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 4,98</t>
+          <t>-0,74; 4,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 9,19</t>
+          <t>2,33; 9,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 6,43</t>
+          <t>0,19; 6,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 4,11</t>
+          <t>-1,08; 4,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 233,88</t>
+          <t>-23,09; 234,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,62; 317,38</t>
+          <t>40,63; 337,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 240,81</t>
+          <t>-3,04; 239,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 81,03</t>
+          <t>-14,39; 78,25</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 6,33</t>
+          <t>-0,46; 6,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,23; 13,91</t>
+          <t>5,75; 14,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,4</t>
+          <t>1,47; 7,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 8,51</t>
+          <t>-0,36; 8,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 104,66</t>
+          <t>-6,74; 104,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,15; 161,4</t>
+          <t>45,73; 163,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,36; 148,99</t>
+          <t>17,79; 167,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 94,59</t>
+          <t>-0,18; 92,34</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,54</t>
+          <t>0,68; 2,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,94</t>
+          <t>3,55; 5,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,11</t>
+          <t>1,1; 3,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,12</t>
+          <t>0,82; 2,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,73; 94,34</t>
+          <t>18,75; 99,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>68,32; 146,09</t>
+          <t>66,14; 142,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,24; 105,62</t>
+          <t>26,05; 102,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,29; 65,27</t>
+          <t>13,49; 62,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P13_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,47</t>
+          <t>-1,51; 2,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,48</t>
+          <t>-2,52; 1,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,13</t>
+          <t>0,33; 3,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-56,26; 244,95</t>
+          <t>-50,81; 214,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-71,41; 111,31</t>
+          <t>-72,27; 137,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,67</t>
+          <t>-0,15; 3,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,82</t>
+          <t>-0,34; 3,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 1,32</t>
+          <t>-1,79; 1,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 348,0</t>
+          <t>-20,0; 418,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 254,85</t>
+          <t>-15,5; 248,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,78; 135,03</t>
+          <t>-70,79; 112,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,21</t>
+          <t>-2,84; 1,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 5,12</t>
+          <t>-0,13; 4,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,25</t>
+          <t>-2,65; 1,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,3; 42,93</t>
+          <t>-57,82; 42,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 168,54</t>
+          <t>-2,64; 153,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-60,78; 52,55</t>
+          <t>-58,44; 69,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,98</t>
+          <t>0,64; 4,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 7,37</t>
+          <t>1,35; 7,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 4,84</t>
+          <t>-0,06; 5,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 693,13</t>
+          <t>3,65; 667,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,63; 250,95</t>
+          <t>19,82; 226,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 154,62</t>
+          <t>-5,3; 183,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,94</t>
+          <t>-0,71; 5,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 9,22</t>
+          <t>2,14; 8,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 6,63</t>
+          <t>0,09; 6,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 234,66</t>
+          <t>-20,95; 253,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,63; 337,18</t>
+          <t>30,9; 323,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 239,41</t>
+          <t>-3,9; 226,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 6,35</t>
+          <t>-0,62; 6,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,75; 14,33</t>
+          <t>5,63; 14,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,47; 7,94</t>
+          <t>1,66; 7,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 104,14</t>
+          <t>-6,71; 108,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,73; 163,86</t>
+          <t>43,25; 161,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,79; 167,39</t>
+          <t>17,05; 157,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,77</t>
+          <t>0,74; 2,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,55; 5,91</t>
+          <t>3,4; 5,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,14</t>
+          <t>1,11; 3,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,75; 99,32</t>
+          <t>19,0; 90,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>66,14; 142,13</t>
+          <t>63,8; 142,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,05; 102,0</t>
+          <t>27,89; 104,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P13_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,48</t>
+          <t>-1,41; 2,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 1,92</t>
+          <t>-2,45; 1,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,14</t>
+          <t>0,3; 2,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,2</t>
+          <t>-1,2; 0,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,81; 214,36</t>
+          <t>-49,62; 224,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-72,27; 137,25</t>
+          <t>-70,84; 116,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,03</t>
+          <t>-0,21; 2,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,8</t>
+          <t>-0,23; 3,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,2</t>
+          <t>-1,84; 1,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 2,08</t>
+          <t>-3,8; 2,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 418,78</t>
+          <t>-22,44; 352,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 248,87</t>
+          <t>-15,06; 250,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,79; 112,07</t>
+          <t>-71,36; 118,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-65,7; 105,49</t>
+          <t>-64,52; 108,73</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 1,27</t>
+          <t>-3,26; 1,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 4,8</t>
+          <t>-0,15; 4,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 1,4</t>
+          <t>-2,75; 1,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,14</t>
+          <t>-2,75; 1,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,82; 42,8</t>
+          <t>-59,71; 43,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 153,23</t>
+          <t>-6,13; 152,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-58,44; 69,63</t>
+          <t>-59,62; 65,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-57,47; 58,27</t>
+          <t>-56,17; 53,56</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,72</t>
+          <t>0,64; 4,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 7,26</t>
+          <t>1,25; 7,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 5,23</t>
+          <t>-0,44; 5,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,68</t>
+          <t>-1,58; 2,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 667,99</t>
+          <t>12,12; 621,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,82; 226,64</t>
+          <t>20,56; 238,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 183,71</t>
+          <t>-11,04; 160,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,35; 95,58</t>
+          <t>-27,82; 94,41</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 5,09</t>
+          <t>-0,73; 4,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 8,78</t>
+          <t>2,26; 9,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 6,48</t>
+          <t>0,29; 6,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,01</t>
+          <t>-1,41; 4,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 253,31</t>
+          <t>-19,94; 233,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,9; 323,14</t>
+          <t>36,62; 317,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 226,09</t>
+          <t>2,5; 240,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 78,25</t>
+          <t>-17,39; 81,03</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 6,48</t>
+          <t>-0,69; 6,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,63; 14,03</t>
+          <t>6,23; 13,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,66; 7,82</t>
+          <t>1,33; 7,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 8,36</t>
+          <t>0,35; 8,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 108,75</t>
+          <t>-8,87; 104,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>43,25; 161,29</t>
+          <t>49,15; 161,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,05; 157,66</t>
+          <t>15,36; 148,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 92,34</t>
+          <t>4,44; 94,59</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,56</t>
+          <t>0,58; 2,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,9</t>
+          <t>3,53; 5,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,16</t>
+          <t>1,05; 3,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,99</t>
+          <t>0,85; 3,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,0; 90,79</t>
+          <t>15,73; 94,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>63,8; 142,82</t>
+          <t>68,32; 146,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,89; 104,44</t>
+          <t>26,24; 105,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,49; 62,78</t>
+          <t>14,29; 65,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P13_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-9,06%</t>
+          <t>-16,45%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,84</t>
+          <t>-1,24; 0,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-20,81%</t>
+          <t>-28,34%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 2,12</t>
+          <t>-4,27; 1,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,52; 108,73</t>
+          <t>-71,13; 83,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-18,95%</t>
+          <t>-17,31%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,12</t>
+          <t>-2,65; 1,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-56,17; 53,56</t>
+          <t>-55,78; 53,21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>45,05%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,7</t>
+          <t>-0,81; 3,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 94,41</t>
+          <t>-17,44; 221,28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>24,03%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 4,11</t>
+          <t>-1,4; 4,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 81,03</t>
+          <t>-17,02; 81,44</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,3</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>37,24%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>94,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>72,67%</t>
+          <t>52,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>52,58%</t>
+          <t>-20,57%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 6,33</t>
+          <t>-1,78; 6,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,23; 13,91</t>
+          <t>2,4; 13,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,4</t>
+          <t>-1,47; 5,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 8,51</t>
+          <t>-6,68; 2,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 104,66</t>
+          <t>-22,45; 148,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,15; 161,4</t>
+          <t>20,43; 207,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,36; 148,99</t>
+          <t>-25,51; 215,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 94,59</t>
+          <t>-72,4; 36,62</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>11,73</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>11,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>52,2%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>100,9%</t>
+          <t>85,76%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>59,55%</t>
+          <t>66,3%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>81,31%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-3,48; 7,98</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 18,87</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 11,58</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7,02; 15,71</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-26,24; 111,92</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>33,07; 183,62</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7,48; 170,92</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>39,57; 139,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4,68</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>52,2%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>100,9%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>59,55%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>40,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,58; 2,54</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>3,53; 5,94</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>1,05; 3,11</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 3,12</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 3,36</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>15,73; 94,34</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>68,32; 146,09</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>26,24; 105,62</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>14,29; 65,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11,22; 83,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P13_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Edad-trans_bre.xlsx
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,61</t>
+          <t>-1,22; 2,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,73</t>
+          <t>-2,43; 1,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,88</t>
+          <t>0,3; 2,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 0,74</t>
+          <t>-1,32; 0,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,62; 224,86</t>
+          <t>-47,17; 229,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-70,84; 116,55</t>
+          <t>-71,3; 115,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,8</t>
+          <t>-0,33; 2,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 3,8</t>
+          <t>-0,17; 3,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 1,13</t>
+          <t>-1,75; 1,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 1,71</t>
+          <t>-4,83; 1,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,44; 352,43</t>
+          <t>-22,91; 381,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 250,77</t>
+          <t>-8,81; 256,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,36; 118,32</t>
+          <t>-69,61; 126,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-71,13; 83,51</t>
+          <t>-73,23; 73,73</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 1,17</t>
+          <t>-2,95; 1,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 4,92</t>
+          <t>0,18; 5,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,4</t>
+          <t>-2,61; 1,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 1,2</t>
+          <t>-2,74; 1,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-59,71; 43,23</t>
+          <t>-55,28; 52,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 152,94</t>
+          <t>2,73; 173,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-59,62; 65,67</t>
+          <t>-56,82; 55,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-55,78; 53,21</t>
+          <t>-55,65; 58,7</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,9</t>
+          <t>0,67; 4,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 7,22</t>
+          <t>1,52; 7,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,0</t>
+          <t>-0,17; 4,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 3,92</t>
+          <t>-0,9; 4,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,12; 621,7</t>
+          <t>18,83; 678,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,56; 238,24</t>
+          <t>20,76; 247,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 160,68</t>
+          <t>-6,69; 165,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 221,28</t>
+          <t>-18,18; 240,95</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 4,98</t>
+          <t>-0,82; 4,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 9,19</t>
+          <t>2,31; 9,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 6,43</t>
+          <t>0,34; 6,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 4,09</t>
+          <t>-0,91; 4,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 233,88</t>
+          <t>-19,82; 244,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,62; 317,38</t>
+          <t>37,34; 316,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 240,81</t>
+          <t>3,54; 242,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 81,44</t>
+          <t>-12,05; 84,32</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 6,09</t>
+          <t>-1,58; 6,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,4; 13,02</t>
+          <t>2,13; 13,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 5,19</t>
+          <t>-1,36; 5,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 2,25</t>
+          <t>-6,12; 2,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 148,32</t>
+          <t>-22,05; 150,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,43; 207,27</t>
+          <t>18,21; 214,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 215,99</t>
+          <t>-28,01; 225,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-72,4; 36,62</t>
+          <t>-69,52; 36,82</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 7,98</t>
+          <t>-2,94; 8,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,07; 18,87</t>
+          <t>5,37; 18,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 11,58</t>
+          <t>1,01; 11,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,02; 15,71</t>
+          <t>7,11; 15,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 111,92</t>
+          <t>-23,88; 124,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>33,07; 183,62</t>
+          <t>30,13; 186,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,48; 170,92</t>
+          <t>7,71; 169,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>39,57; 139,8</t>
+          <t>44,89; 137,77</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,54</t>
+          <t>0,56; 2,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,94</t>
+          <t>3,29; 5,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,11</t>
+          <t>0,98; 3,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,36</t>
+          <t>0,61; 3,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,73; 94,34</t>
+          <t>15,35; 93,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>68,32; 146,09</t>
+          <t>65,16; 146,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,24; 105,62</t>
+          <t>26,09; 103,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,22; 83,81</t>
+          <t>12,92; 83,86</t>
         </is>
       </c>
     </row>
